--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mealea.meng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liya.An\Desktop\Group11- Automated Document Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>mealea</t>
   </si>
@@ -35,7 +35,10 @@
     <t>katrork</t>
   </si>
   <si>
-    <t>rady</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>RADY</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -375,12 +378,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>

--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liya.An\Desktop\Group11- Automated Document Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartrork.Thy\Desktop\G11-Automated-Document-Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>mealea</t>
-  </si>
-  <si>
-    <t>liya</t>
-  </si>
-  <si>
-    <t>katrork</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>RADY</t>
+  </si>
+  <si>
+    <t>NILRATHANA</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>SREYNEATH</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>SAMBAT</t>
+  </si>
+  <si>
+    <t>POLEAK</t>
+  </si>
+  <si>
+    <t>KARTORK</t>
+  </si>
+  <si>
+    <t>YONGSY</t>
+  </si>
+  <si>
+    <t>SOKHA</t>
+  </si>
+  <si>
+    <t>OEUB</t>
+  </si>
+  <si>
+    <t>SOK AN</t>
+  </si>
+  <si>
+    <t>MENG SEU</t>
+  </si>
+  <si>
+    <t>LE THEAN</t>
+  </si>
+  <si>
+    <t>THAT</t>
+  </si>
+  <si>
+    <t>RATANA</t>
+  </si>
+  <si>
+    <t>SREYPICH</t>
+  </si>
+  <si>
+    <t>PISETH</t>
+  </si>
+  <si>
+    <t>SREYVANG</t>
+  </si>
+  <si>
+    <t>SREYLET</t>
+  </si>
+  <si>
+    <t>LINNA</t>
+  </si>
+  <si>
+    <t>SAMOUN</t>
+  </si>
+  <si>
+    <t>SAMNOEUN</t>
+  </si>
+  <si>
+    <t>SOKLEAP</t>
+  </si>
+  <si>
+    <t>SREYKA</t>
+  </si>
+  <si>
+    <t>SREYNEANG</t>
+  </si>
+  <si>
+    <t>PHANHAPICH</t>
+  </si>
+  <si>
+    <t>KANHA</t>
+  </si>
+  <si>
+    <t>VANDA</t>
+  </si>
+  <si>
+    <t>BOPHA</t>
+  </si>
+  <si>
+    <t>PHALLY</t>
+  </si>
+  <si>
+    <t>SEAVMEY</t>
+  </si>
+  <si>
+    <t>LEADER</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>SINA</t>
+  </si>
+  <si>
+    <t>SEANG MENG</t>
+  </si>
+  <si>
+    <t>KOSAL</t>
+  </si>
+  <si>
+    <t>SOR</t>
+  </si>
+  <si>
+    <t>PICH</t>
+  </si>
+  <si>
+    <t>THAVRY</t>
+  </si>
+  <si>
+    <t>SONAVY</t>
+  </si>
+  <si>
+    <t>BUNYOUNG</t>
+  </si>
+  <si>
+    <t>AHNOCH</t>
+  </si>
+  <si>
+    <t>PANHA</t>
+  </si>
+  <si>
+    <t>LYMENG</t>
+  </si>
+  <si>
+    <t>KOEMTHAY</t>
+  </si>
+  <si>
+    <t>CHHORRINA</t>
+  </si>
+  <si>
+    <t>NANGKHOEUM</t>
+  </si>
+  <si>
+    <t>PHEAKTRA</t>
+  </si>
+  <si>
+    <t>MEALEA</t>
+  </si>
+  <si>
+    <t>SODA</t>
+  </si>
+  <si>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>LYNAK</t>
+  </si>
+  <si>
+    <t>SOVAN</t>
+  </si>
+  <si>
+    <t>SOPHY</t>
+  </si>
+  <si>
+    <t>MESA</t>
+  </si>
+  <si>
+    <t>SOLIN</t>
+  </si>
+  <si>
+    <t>CHHEA</t>
+  </si>
+  <si>
+    <t>SINH</t>
+  </si>
+  <si>
+    <t>SREYNICH</t>
+  </si>
+  <si>
+    <t>HORTH</t>
+  </si>
+  <si>
+    <t>SOLEN</t>
+  </si>
+  <si>
+    <t>CHARYNA</t>
+  </si>
+  <si>
+    <t>PANY</t>
+  </si>
+  <si>
+    <t>CHANNAK</t>
+  </si>
+  <si>
+    <t>LIYA</t>
+  </si>
+  <si>
+    <t>RACHANA</t>
+  </si>
+  <si>
+    <t>SENGHIN</t>
+  </si>
+  <si>
+    <t>KIMCHHIK</t>
+  </si>
+  <si>
+    <t>BUNNY</t>
+  </si>
+  <si>
+    <t>SOPHEAN</t>
+  </si>
+  <si>
+    <t>CHANDY</t>
+  </si>
+  <si>
+    <t>RETHY</t>
+  </si>
+  <si>
+    <t>DARIN</t>
   </si>
 </sst>
 </file>
@@ -363,76 +573,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liya.An\Desktop\Group11- Automated Document Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartrork.Thy\Desktop\G11-Automated-Document-Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>mealea</t>
-  </si>
-  <si>
-    <t>liya</t>
-  </si>
-  <si>
-    <t>katrork</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>RADY</t>
+  </si>
+  <si>
+    <t>NILRATHANA</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>SREYNEATH</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>SAMBAT</t>
+  </si>
+  <si>
+    <t>POLEAK</t>
+  </si>
+  <si>
+    <t>YONGSY</t>
+  </si>
+  <si>
+    <t>SOKHA</t>
+  </si>
+  <si>
+    <t>OEUB</t>
+  </si>
+  <si>
+    <t>SOK AN</t>
+  </si>
+  <si>
+    <t>MENG SEU</t>
+  </si>
+  <si>
+    <t>LE THEAN</t>
+  </si>
+  <si>
+    <t>THAT</t>
+  </si>
+  <si>
+    <t>RATANA</t>
+  </si>
+  <si>
+    <t>SREYPICH</t>
+  </si>
+  <si>
+    <t>PISETH</t>
+  </si>
+  <si>
+    <t>SREYVANG</t>
+  </si>
+  <si>
+    <t>SREYLET</t>
+  </si>
+  <si>
+    <t>LINNA</t>
+  </si>
+  <si>
+    <t>SAMOUN</t>
+  </si>
+  <si>
+    <t>SAMNOEUN</t>
+  </si>
+  <si>
+    <t>SOKLEAP</t>
+  </si>
+  <si>
+    <t>SREYKA</t>
+  </si>
+  <si>
+    <t>SREYNEANG</t>
+  </si>
+  <si>
+    <t>PHANHAPICH</t>
+  </si>
+  <si>
+    <t>KANHA</t>
+  </si>
+  <si>
+    <t>VANDA</t>
+  </si>
+  <si>
+    <t>BOPHA</t>
+  </si>
+  <si>
+    <t>PHALLY</t>
+  </si>
+  <si>
+    <t>SEAVMEY</t>
+  </si>
+  <si>
+    <t>LEADER</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>SINA</t>
+  </si>
+  <si>
+    <t>SEANG MENG</t>
+  </si>
+  <si>
+    <t>KOSAL</t>
+  </si>
+  <si>
+    <t>SOR</t>
+  </si>
+  <si>
+    <t>PICH</t>
+  </si>
+  <si>
+    <t>THAVRY</t>
+  </si>
+  <si>
+    <t>SONAVY</t>
+  </si>
+  <si>
+    <t>BUNYOUNG</t>
+  </si>
+  <si>
+    <t>AHNOCH</t>
+  </si>
+  <si>
+    <t>PANHA</t>
+  </si>
+  <si>
+    <t>LYMENG</t>
+  </si>
+  <si>
+    <t>KOEMTHAY</t>
+  </si>
+  <si>
+    <t>CHHORRINA</t>
+  </si>
+  <si>
+    <t>NANGKHOEUM</t>
+  </si>
+  <si>
+    <t>PHEAKTRA</t>
+  </si>
+  <si>
+    <t>MEALEA</t>
+  </si>
+  <si>
+    <t>SODA</t>
+  </si>
+  <si>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>LYNAK</t>
+  </si>
+  <si>
+    <t>SOVAN</t>
+  </si>
+  <si>
+    <t>SOPHY</t>
+  </si>
+  <si>
+    <t>MESA</t>
+  </si>
+  <si>
+    <t>SOLIN</t>
+  </si>
+  <si>
+    <t>CHHEA</t>
+  </si>
+  <si>
+    <t>SINH</t>
+  </si>
+  <si>
+    <t>SREYNICH</t>
+  </si>
+  <si>
+    <t>HORTH</t>
+  </si>
+  <si>
+    <t>SOLEN</t>
+  </si>
+  <si>
+    <t>CHARYNA</t>
+  </si>
+  <si>
+    <t>PANY</t>
+  </si>
+  <si>
+    <t>CHANNAK</t>
+  </si>
+  <si>
+    <t>LIYA</t>
+  </si>
+  <si>
+    <t>RACHANA</t>
+  </si>
+  <si>
+    <t>SENGHIN</t>
+  </si>
+  <si>
+    <t>KIMCHHIK</t>
+  </si>
+  <si>
+    <t>BUNNY</t>
+  </si>
+  <si>
+    <t>SOPHEAN</t>
+  </si>
+  <si>
+    <t>CHANDY</t>
+  </si>
+  <si>
+    <t>RETHY</t>
+  </si>
+  <si>
+    <t>DARIN</t>
+  </si>
+  <si>
+    <t>KARTRORK</t>
+  </si>
+  <si>
+    <t>SOKCHEA</t>
   </si>
 </sst>
 </file>
@@ -363,76 +576,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
